--- a/Fondos.xlsx
+++ b/Fondos.xlsx
@@ -260,13 +260,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -274,6 +267,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -351,7 +351,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,27 +361,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,19 +413,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,7 +437,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -457,7 +457,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -529,39 +529,38 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U65" activeCellId="0" sqref="U65"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="2.29591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.02551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="2.29591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="2.69897959183673"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.3418367346939"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.88265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.5612244897959"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.2551020408163"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.4081632653061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.5612244897959"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="22.984693877551"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="2.15816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.88775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="2.15816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="2.56632653061224"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,8 +4093,8 @@
         <v>18</v>
       </c>
       <c r="B68" s="20" t="n">
-        <f aca="false">COVAR(C3:C59,G3:G59)</f>
-        <v>0.000694124480540366</v>
+        <f aca="false">COVAR(C3:C62,G3:G62)</f>
+        <v>0.000697662558940552</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="2"/>
@@ -4156,8 +4155,8 @@
         <v>29</v>
       </c>
       <c r="B69" s="20" t="n">
-        <f aca="false">COVAR(C3:C59,K3:K59)</f>
-        <v>0.000584930603060816</v>
+        <f aca="false">COVAR(C3:C62,K3:K62)</f>
+        <v>0.00054303243366933</v>
       </c>
       <c r="C69" s="4"/>
       <c r="E69" s="2" t="s">
@@ -4446,9 +4445,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -4472,9 +4468,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
